--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2172979.322359605</v>
+        <v>2176287.159248637</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404853</v>
       </c>
     </row>
     <row r="9">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>25.19384698280639</v>
       </c>
       <c r="G2" t="n">
-        <v>18.31780124109495</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.892417739585678</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,61 +826,61 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G4" t="n">
-        <v>23.44046883036203</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>193.4600505471182</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>180.1159031720507</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>114.6020536118652</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>43.33517205040123</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,11 +1367,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>35.40726547353833</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>53.40434129223492</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1613,58 +1613,58 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>80.33470701582003</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>110.8283177867685</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>35.74905915623028</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.86349518004438</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,13 +2090,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>220.8837963815378</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>37.18582309281558</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>19.29350169663057</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2327,10 +2327,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>157.8643926765646</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,16 +2564,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,13 +2646,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>90.36004757168706</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>44.77661164571509</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2728,46 +2728,46 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>33.80371536444976</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>202.2946864288972</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0.2369428143257016</v>
       </c>
       <c r="D30" t="n">
-        <v>89.89109712599216</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,25 +2919,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,64 +3032,64 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>99.95068065447325</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3165,13 +3165,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>131.8543679266297</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>121.2086027464166</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -3503,22 +3503,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.66547645067553</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3819,28 +3819,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>108.0715482739336</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>9.991949277019431</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>32.56535520043003</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>134.0860626849442</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="C2" t="n">
-        <v>41.79932185354235</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>34.85382110433888</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4331,19 +4331,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>55.11790488024824</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4352,28 +4352,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955221</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="W2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="X2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.79932185354235</v>
+        <v>203.9585006715719</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4410,19 +4410,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>110.2358097604965</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
         <v>214.050116039799</v>
@@ -4431,28 +4431,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>59.08819457959154</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>82.01130316959576</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>226.7653248291326</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X5" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4750,22 +4750,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
         <v>19.28114311021272</v>
@@ -4787,10 +4787,10 @@
         <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4884,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4914,19 +4914,19 @@
         <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>645.6973804531794</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W9" t="n">
-        <v>402.2486038090794</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="X9" t="n">
-        <v>402.2486038090794</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.4883050441255</v>
+        <v>226.0945550188371</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5060,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>432.9682111954345</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>258.5151819143075</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5127,43 +5127,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>808.9438469804563</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>601.1835482155025</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5300,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>852.1093597664257</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C15" t="n">
-        <v>677.6563304852987</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D15" t="n">
-        <v>528.7219208240474</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E15" t="n">
-        <v>369.484465818592</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F15" t="n">
-        <v>222.9499078454769</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G15" t="n">
         <v>222.9499078454769</v>
@@ -5361,46 +5361,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="16">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5601,10 +5601,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
         <v>712.019119383956</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>262.7299197543128</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="19">
@@ -5695,19 +5695,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F20" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G20" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H20" t="n">
         <v>243.9530410142718</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.2300195200815</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C21" t="n">
-        <v>205.7769902389545</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D21" t="n">
-        <v>56.84258057770322</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>185.3040866354798</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>38.76952866236482</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5868,13 +5868,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y21" t="n">
-        <v>548.4453565401495</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E23" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D23" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E23" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>486.9119902784999</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y24" t="n">
-        <v>655.1273272985679</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6178,19 +6178,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C26" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>274.0360370837871</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>30.58726043968704</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>517.4848137278872</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U26" t="n">
-        <v>274.0360370837871</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V26" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W26" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X26" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.0360370837871</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>111.3080510879349</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="C27" t="n">
-        <v>111.3080510879349</v>
+        <v>352.9294114938717</v>
       </c>
       <c r="D27" t="n">
-        <v>111.3080510879349</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="E27" t="n">
-        <v>111.3080510879349</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="F27" t="n">
-        <v>111.3080510879349</v>
+        <v>203.9950018326204</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>65.26417641523591</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>65.26417641523591</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,49 +6306,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X27" t="n">
-        <v>487.2836868729568</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y27" t="n">
-        <v>279.5233881080029</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6415,19 +6415,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C29" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D29" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E29" t="n">
-        <v>223.6192102101089</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F29" t="n">
-        <v>223.6192102101089</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G29" t="n">
-        <v>223.6192102101089</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y29" t="n">
-        <v>467.067986854209</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>284.5332603973924</v>
+        <v>179.5120669445405</v>
       </c>
       <c r="C30" t="n">
-        <v>110.0802311162654</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6552,10 +6552,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>735.8335372470253</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W30" t="n">
-        <v>492.3847606029253</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X30" t="n">
-        <v>284.5332603973924</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y30" t="n">
-        <v>284.5332603973924</v>
+        <v>347.7274039646085</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>211.2951883952089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6789,10 +6789,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6813,16 +6813,16 @@
         <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W33" t="n">
-        <v>360.2295980564601</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>360.2295980564601</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6874,31 +6874,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>668.2068788942177</v>
+        <v>486.9119902784999</v>
       </c>
       <c r="C36" t="n">
-        <v>668.2068788942177</v>
+        <v>312.4589609973729</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>668.2068788942177</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>668.2068788942177</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X36" t="n">
-        <v>668.2068788942177</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y36" t="n">
-        <v>668.2068788942177</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>241.7186438601369</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7254,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>873.4859671766205</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>700.0686226272894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="40">
@@ -7354,25 +7354,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
         <v>829.5248650203655</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7436,25 +7436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>40.6788758079141</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7515,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>852.7947480059265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>609.3459713618265</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X42" t="n">
-        <v>401.4944711562937</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.7341723913397</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
         <v>829.5248650203655</v>
@@ -7609,10 +7609,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
@@ -7676,22 +7676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>495.259035872464</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="C45" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D45" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E45" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F45" t="n">
-        <v>158.7661011803829</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>829.9933278812694</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>601.7697096176585</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>366.6176013859157</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W45" t="n">
-        <v>366.6176013859157</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X45" t="n">
-        <v>158.7661011803829</v>
+        <v>626.4300935108727</v>
       </c>
       <c r="Y45" t="n">
-        <v>158.7661011803829</v>
+        <v>418.6697947459187</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
         <v>829.5248650203655</v>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>185.3248140400396</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8304,16 +8304,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,22 +9009,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,13 +10200,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10437,13 +10437,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,16 +11139,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23273,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>268.4601236753789</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23355,7 +23355,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>64.7505686791048</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>152.3686439112425</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23540,19 +23540,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.70486586309889</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>101.5944580069803</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23774,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,10 +23808,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>103.669688469823</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>64.7505686791048</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,13 +23978,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>118.5910057342293</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24011,13 +24011,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,19 +24048,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>120.4592573625854</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>118.0500154665801</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I22" t="n">
         <v>155.4504749272583</v>
@@ -24215,10 +24215,10 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24251,16 +24251,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>139.0167266006028</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>14.84410631175115</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>42.70668231727912</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,16 +24452,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>199.2828334142263</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,13 +24494,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>46.98346959152357</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>44.62002120569998</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,16 +24689,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>373.0723303772617</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>8.181203141508689</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.47155617399</v>
       </c>
       <c r="D30" t="n">
-        <v>57.55396843864659</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,25 +24807,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,16 +24920,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,22 +24962,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,13 +25011,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>12.28476358202322</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25053,13 +25053,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>101.0346019561178</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>15.59069763800903</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,7 +25290,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>111.5919844030087</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25391,22 +25391,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25442,16 +25442,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>129.0278429749881</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>95.01151712483079</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.49235770196761</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,10 +25533,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25594,7 +25594,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25676,22 +25676,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>348.5473453077446</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25707,28 +25707,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>36.99766411945031</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,16 +25764,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>222.8086378724058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.5300167065108</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,10 +25871,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25916,16 +25916,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,13 +25953,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>167.5993734943916</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>71.68692251853324</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095316</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095316</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>315705.2778095316</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095316</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="15">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>265857.0760501318</v>
@@ -26344,16 +26344,16 @@
         <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501317</v>
       </c>
       <c r="N2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="O2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="P2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472497</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272062.4212176348</v>
+        <v>272360.4272419867</v>
       </c>
       <c r="C6" t="n">
-        <v>268442.1916363903</v>
+        <v>268850.7648088334</v>
       </c>
       <c r="D6" t="n">
-        <v>329018.5138230582</v>
+        <v>329427.0869955016</v>
       </c>
       <c r="E6" t="n">
-        <v>250615.3016162229</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="F6" t="n">
-        <v>250615.3016162229</v>
+        <v>251023.8747886661</v>
       </c>
       <c r="G6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="H6" t="n">
-        <v>250615.3016162229</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="I6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="J6" t="n">
-        <v>236614.0694759436</v>
+        <v>237022.6426483868</v>
       </c>
       <c r="K6" t="n">
-        <v>202358.3486825904</v>
+        <v>202766.9218550337</v>
       </c>
       <c r="L6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="M6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886661</v>
       </c>
       <c r="N6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="O6" t="n">
-        <v>250615.3016162229</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="P6" t="n">
-        <v>250615.301616223</v>
+        <v>251023.8747886662</v>
       </c>
     </row>
   </sheetData>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>381.682198758905</v>
       </c>
       <c r="G2" t="n">
-        <v>396.9849362740401</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>96.35658893119992</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>169.5833205541816</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>101.0578213389329</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.7774844691157</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>163.3544033590422</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,13 +27546,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>91.90851901298149</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.5505105280967</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,16 +27628,16 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>221.8426869680169</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>30.35998639835518</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,16 +27670,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>206.4061090279471</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>179.6356836433646</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>51.93113003800212</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>189.465415099024</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34945,7 +34945,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35024,16 +35024,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35416,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35495,19 +35495,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,13 +35969,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,13 +36920,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37877,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2176287.159248637</v>
+        <v>2178610.831062504</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404853</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.19384698280639</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="G2" t="n">
         <v>53.51252900994975</v>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -738,55 +740,55 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D3" t="n">
-        <v>46.38724422570589</v>
-      </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47.13383555196375</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="S3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -814,34 +816,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.440468830362</v>
+      </c>
+      <c r="H4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.892417739585678</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="I5" t="n">
-        <v>180.1159031720507</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>45.28887413297245</v>
+        <v>56.09845945794353</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>114.6020536118652</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1263,19 +1265,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>58.31778942091227</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,13 +1387,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71.01467844038824</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.4493372338499</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>53.40434129223492</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>35.74905915623028</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>7.153368805877944</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>65.1306020652372</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1983,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>21.85442600983729</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>19.29350169663057</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2321,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>104.7383832473596</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>42.04748827521355</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,16 +2569,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>44.77661164571509</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2685,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>122.6216409516451</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2871,13 +2873,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2369428143257016</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>121.525102284894</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3083,10 +3085,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3153,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>188.2184153478179</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>104.7383832473596</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,31 +3265,31 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>71.01467844038818</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>131.8543679266297</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>178.0899485834578</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3506,19 +3508,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,22 +3587,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>65.32112992428254</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>108.0715482739336</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>149.2992955570995</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3898,67 +3900,67 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3982,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4062,16 +4064,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>78.98946446248301</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>134.0860626849442</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,70 +4134,70 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="D2" t="n">
         <v>95.85238145955221</v>
@@ -4316,16 +4318,16 @@
         <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>70.40405117388919</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4334,10 +4336,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
@@ -4352,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="E3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="F3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="G3" t="n">
-        <v>59.08819457959154</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="N3" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O3" t="n">
         <v>161.0727123199487</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>214.050116039799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.050116039799</v>
+        <v>105.9439968277793</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.70717359904702</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>187.623944761548</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>133.5708851555381</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>79.51782554952828</v>
       </c>
       <c r="L4" t="n">
-        <v>31.59512732850896</v>
+        <v>106.8319505572413</v>
       </c>
       <c r="M4" t="n">
-        <v>70.78316552073113</v>
+        <v>146.0199887494634</v>
       </c>
       <c r="N4" t="n">
-        <v>114.4740161761674</v>
+        <v>189.7108394048997</v>
       </c>
       <c r="O4" t="n">
-        <v>138.8132928110667</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505688</v>
+        <v>211.3011860043379</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.76023320505688</v>
+        <v>211.3011860043379</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F5" t="n">
-        <v>216.6737094609055</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G5" t="n">
-        <v>201.2163988395569</v>
+        <v>240.4792928124106</v>
       </c>
       <c r="H5" t="n">
-        <v>201.2163988395569</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4594,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y5" t="n">
-        <v>223.6192102101089</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
         <v>223.7040404982626</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4677,19 +4679,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>817.1412885554689</v>
+        <v>577.9988972363316</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>577.9988972363316</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>370.2385984713777</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4750,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4913,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>630.5634235132693</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="V9" t="n">
-        <v>226.0945550188371</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0945550188371</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X9" t="n">
-        <v>226.0945550188371</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y9" t="n">
-        <v>226.0945550188371</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C11" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D11" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E11" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F11" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G11" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W11" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X11" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y11" t="n">
-        <v>559.1338160830064</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>432.9682111954345</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C12" t="n">
-        <v>258.5151819143075</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D12" t="n">
-        <v>109.5807722530562</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E12" t="n">
-        <v>109.5807722530562</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F12" t="n">
-        <v>109.5807722530562</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5130,40 +5132,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>851.8101010141643</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>796.9366128501817</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>594.7500182089477</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="X12" t="n">
-        <v>808.9438469804563</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y12" t="n">
-        <v>601.1835482155025</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="U14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X14" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="Y14" t="n">
         <v>506.1786963984129</v>
-      </c>
-      <c r="U14" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="W14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="X14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
         <v>19.28114311021272</v>
@@ -5361,13 +5363,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>956.8315304541939</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>783.4141859048627</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>783.4141859048627</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>783.4141859048627</v>
       </c>
       <c r="V15" t="n">
-        <v>259.0600686093459</v>
+        <v>548.2620776731201</v>
       </c>
       <c r="W15" t="n">
-        <v>259.0600686093459</v>
+        <v>548.2620776731201</v>
       </c>
       <c r="X15" t="n">
-        <v>259.0600686093459</v>
+        <v>340.4105774675873</v>
       </c>
       <c r="Y15" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5619,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>898.2686685760532</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>266.0282188019862</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>344.5415416409353</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C21" t="n">
-        <v>344.5415416409353</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="D21" t="n">
-        <v>344.5415416409353</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="E21" t="n">
-        <v>185.3040866354798</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="F21" t="n">
-        <v>38.76952866236482</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y21" t="n">
-        <v>512.7568786610034</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="22">
@@ -5902,7 +5904,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I22" t="n">
         <v>829.5248650203655</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>262.7299197543128</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.0774898247174</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C24" t="n">
-        <v>125.0774898247174</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>62.50748614200202</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.0774898247174</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>509.4769954460863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>752.9257720901863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V26" t="n">
-        <v>509.4769954460863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W26" t="n">
-        <v>509.4769954460863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X26" t="n">
-        <v>509.4769954460863</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y26" t="n">
-        <v>509.4769954460863</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>352.9294114938717</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C27" t="n">
-        <v>352.9294114938717</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D27" t="n">
-        <v>203.9950018326204</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>203.9950018326204</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>203.9950018326204</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>65.26417641523591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>65.26417641523591</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,19 +6311,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>840.1969121251361</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>611.9732938615252</v>
       </c>
       <c r="V27" t="n">
-        <v>728.9050472788936</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="W27" t="n">
-        <v>728.9050472788936</v>
+        <v>376.8211856297825</v>
       </c>
       <c r="X27" t="n">
-        <v>728.9050472788936</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y27" t="n">
-        <v>521.1447485139397</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>752.9257720901863</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.5120669445405</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
         <v>20.03527576299844</v>
@@ -6552,7 +6554,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>555.4877027295624</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>555.4877027295624</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>555.4877027295624</v>
+        <v>362.7036420641935</v>
       </c>
       <c r="Y30" t="n">
-        <v>347.7274039646085</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="31">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6780,43 +6782,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>125.0774898247174</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W33" t="n">
-        <v>125.0774898247174</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X33" t="n">
         <v>19.28114311021272</v>
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6874,34 +6876,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="X35" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>730.8505943024719</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>486.9119902784999</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C36" t="n">
-        <v>312.4589609973729</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
         <v>20.03527576299844</v>
@@ -7026,7 +7028,7 @@
         <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>784.1683185576485</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>784.1683185576485</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>549.0162103259058</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>341.164710120373</v>
       </c>
       <c r="Y36" t="n">
-        <v>655.1273272985679</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7216,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="C39" t="n">
-        <v>69.84447166430675</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="D39" t="n">
-        <v>69.84447166430675</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E39" t="n">
-        <v>69.84447166430675</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,16 +7256,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
         <v>781.4136778972854</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>898.0762161931791</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>898.0762161931791</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>669.8525979295682</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C41" t="n">
-        <v>964.0571555106362</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="D41" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.4702815141908</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>689.4702815141908</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>540.5358718529395</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>381.298416847484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="T42" t="n">
-        <v>689.4702815141908</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="U42" t="n">
-        <v>689.4702815141908</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="V42" t="n">
-        <v>689.4702815141908</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="W42" t="n">
-        <v>689.4702815141908</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X42" t="n">
-        <v>689.4702815141908</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y42" t="n">
-        <v>689.4702815141908</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
         <v>829.5248650203655</v>
@@ -7606,13 +7608,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7676,22 +7678,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>418.6697947459187</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C45" t="n">
-        <v>418.6697947459187</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D45" t="n">
-        <v>418.6697947459187</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>99.82261360389037</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299844</v>
@@ -7728,13 +7730,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
         <v>542.809531908403</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W45" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X45" t="n">
-        <v>626.4300935108727</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y45" t="n">
-        <v>418.6697947459187</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="46">
@@ -7843,13 +7845,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8076,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8778,16 +8780,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P12" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,16 +9011,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9957,10 +9959,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,10 +10202,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10674,10 +10676,10 @@
         <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,10 +10913,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,13 +23275,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>268.4601236753789</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>6.233833869987905</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>152.3686439112425</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23540,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>128.6853625704253</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>101.5944580069803</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>93.00446534676519</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>103.669688469823</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23859,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>106.5525690386006</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23871,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>317.6203761059298</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>118.0500154665801</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24102,16 +24104,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24142,10 +24144,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24209,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y23" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>42.70668231727912</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>115.5975921801874</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,16 +24335,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,16 +24457,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>331.6961560838159</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>44.62002120569998</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24573,10 +24575,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>77.54308774317651</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24689,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>373.0723303772617</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,25 +24724,25 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24759,13 +24761,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.47155617399</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,7 +24809,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24819,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>84.24788291858349</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>215.4233321629012</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25041,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>44.58217180160733</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>101.0346019561178</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>138.0053911458572</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>15.59069763800903</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>22.07478011136376</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25330,13 +25332,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25394,19 +25396,19 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,22 +25475,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>95.01151712483079</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>106.3620411795553</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>292.2667739183906</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>36.99766411945031</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>22.38387554673832</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25786,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25846,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25868,13 +25870,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>22.7597532753017</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25950,16 +25952,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>58.35405270072762</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>71.68692251853324</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>315705.2778095316</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>315705.2778095316</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>315705.2778095316</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914266</v>
@@ -26326,31 +26328,31 @@
         <v>265857.0760501318</v>
       </c>
       <c r="G2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="H2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="I2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="J2" t="n">
         <v>265857.0760501318</v>
       </c>
       <c r="K2" t="n">
-        <v>265857.0760501319</v>
+        <v>265857.0760501318</v>
       </c>
       <c r="L2" t="n">
         <v>265857.0760501319</v>
       </c>
       <c r="M2" t="n">
+        <v>265857.0760501318</v>
+      </c>
+      <c r="N2" t="n">
+        <v>265857.0760501319</v>
+      </c>
+      <c r="O2" t="n">
         <v>265857.0760501317</v>
-      </c>
-      <c r="N2" t="n">
-        <v>265857.0760501318</v>
-      </c>
-      <c r="O2" t="n">
-        <v>265857.0760501318</v>
       </c>
       <c r="P2" t="n">
         <v>265857.0760501318</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26418,7 +26420,7 @@
         <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
@@ -26445,7 +26447,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
         <v>179.5324977039669</v>
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272360.4272419867</v>
+        <v>272360.4272419866</v>
       </c>
       <c r="C6" t="n">
-        <v>268850.7648088334</v>
+        <v>268850.7648088332</v>
       </c>
       <c r="D6" t="n">
         <v>329427.0869955016</v>
@@ -26534,31 +26536,31 @@
         <v>251023.8747886661</v>
       </c>
       <c r="G6" t="n">
-        <v>251023.8747886662</v>
+        <v>251023.8747886661</v>
       </c>
       <c r="H6" t="n">
         <v>251023.8747886662</v>
       </c>
       <c r="I6" t="n">
-        <v>251023.8747886662</v>
+        <v>251023.8747886661</v>
       </c>
       <c r="J6" t="n">
         <v>237022.6426483868</v>
       </c>
       <c r="K6" t="n">
-        <v>202766.9218550337</v>
+        <v>202766.9218550335</v>
       </c>
       <c r="L6" t="n">
         <v>251023.8747886662</v>
       </c>
       <c r="M6" t="n">
-        <v>251023.8747886661</v>
+        <v>251023.8747886662</v>
       </c>
       <c r="N6" t="n">
         <v>251023.8747886662</v>
       </c>
       <c r="O6" t="n">
-        <v>251023.8747886662</v>
+        <v>251023.8747886661</v>
       </c>
       <c r="P6" t="n">
         <v>251023.8747886662</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>381.682198758905</v>
+        <v>369.7329094042925</v>
       </c>
       <c r="G2" t="n">
         <v>361.7902085051853</v>
@@ -27400,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27458,13 +27460,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0578213389329</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
-        <v>104.1325514454512</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>65.10160868453272</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.3194511719875</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>163.3544033590422</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>144.5505105280968</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>108.7146434974898</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>132.4379232652038</v>
       </c>
       <c r="I5" t="n">
-        <v>30.35998639835518</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27698,16 +27700,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27749,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>206.4061090279471</v>
+        <v>195.5965237029761</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,13 +27861,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51.93113003800212</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,19 +27985,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>141.8469392739093</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -34702,13 +34704,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
@@ -34778,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,7 +35421,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35498,16 +35500,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P12" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36677,10 +36679,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37394,10 +37396,10 @@
         <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,10 +37633,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37789,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37877,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2178610.831062504</v>
+        <v>2109759.534621067</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37.14313633741891</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>53.51252900994975</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -743,25 +743,25 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>47.13383555196375</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,14 +785,14 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.440468830362</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3.89241773958567</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H5" t="n">
-        <v>207.0368788505634</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>82.80811485025656</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>56.09845945794353</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="U7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>58.31778942091227</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>40.67087089223148</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.4493372338499</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1508,16 +1508,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,23 +1606,23 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C14" t="n">
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>241.0142888776591</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.153368805877944</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>185.0891577121396</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>65.1306020652372</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1985,13 +1985,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4141600157168</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2259,52 +2259,52 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2402,16 +2402,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>42.04748827521355</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>26.98580820205339</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,13 +2572,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>122.5899586056058</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>122.6216409516451</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>121.525102284894</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3113,16 +3113,16 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>45.0246924387623</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>188.2184153478179</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,55 +3189,55 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I35" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>71.01467844038818</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>178.0899485834578</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>99.22041616487701</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3435,55 +3435,55 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,73 +3502,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>66.25351780725991</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>65.32112992428254</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>149.2992955570995</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
     </row>
     <row r="43">
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>200.3360962888297</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4061,25 +4061,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>78.98946446248301</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4115,10 +4115,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>8.527342821828583</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>58.33406192680583</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M2" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
+        <v>108.0953086000985</v>
+      </c>
+      <c r="O2" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4357,25 +4357,25 @@
         <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>149.9054410655621</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="T3" t="n">
         <v>159.9970564337892</v>
       </c>
-      <c r="S3" t="n">
-        <v>105.9439968277793</v>
-      </c>
-      <c r="T3" t="n">
-        <v>105.9439968277793</v>
-      </c>
       <c r="U3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9439968277793</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.3011860043379</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="C4" t="n">
-        <v>211.3011860043379</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="D4" t="n">
-        <v>211.3011860043379</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>211.3011860043379</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>211.3011860043379</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>187.623944761548</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>133.5708851555381</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>133.5708851555381</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>79.51782554952828</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>79.51782554952828</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>106.8319505572413</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>146.0199887494634</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>189.7108394048997</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>214.050116039799</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>211.3011860043379</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>211.3011860043379</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="W4" t="n">
-        <v>211.3011860043379</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="X4" t="n">
-        <v>211.3011860043379</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.3011860043379</v>
+        <v>134.8815577205762</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C5" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>499.3853800778592</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>255.9366034337592</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G5" t="n">
-        <v>240.4792928124106</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370.2385984713777</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="C6" t="n">
-        <v>370.2385984713777</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D6" t="n">
-        <v>370.2385984713777</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="W6" t="n">
-        <v>577.9988972363316</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="X6" t="n">
-        <v>577.9988972363316</v>
+        <v>605.8257210593862</v>
       </c>
       <c r="Y6" t="n">
-        <v>370.2385984713777</v>
+        <v>605.8257210593862</v>
       </c>
     </row>
     <row r="7">
@@ -4743,19 +4743,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
         <v>41.77557929797318</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>754.7601307206374</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>580.3071014395105</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>630.5634235132693</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>402.3398052496583</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>402.3398052496583</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>402.3398052496583</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="X9" t="n">
-        <v>194.4883050441255</v>
+        <v>922.9754677407054</v>
       </c>
       <c r="Y9" t="n">
-        <v>194.4883050441255</v>
+        <v>922.9754677407054</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
         <v>136.0777814360265</v>
@@ -4986,28 +4986,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C11" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E11" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F11" t="n">
-        <v>122.6530896684844</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G11" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>122.6530896684844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>366.1018663125844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X11" t="n">
-        <v>122.6530896684844</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.6530896684844</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.7661011803829</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>796.9366128501817</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>594.7500182089477</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U12" t="n">
-        <v>366.5263999453368</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V12" t="n">
-        <v>366.5263999453368</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W12" t="n">
-        <v>366.5263999453368</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X12" t="n">
-        <v>366.5263999453368</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.7661011803829</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C14" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D14" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E14" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F14" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5299,25 +5299,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
         <v>749.627473042513</v>
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>132.6502787026334</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5360,49 +5360,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>956.8315304541939</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>783.4141859048627</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>783.4141859048627</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U15" t="n">
-        <v>783.4141859048627</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V15" t="n">
-        <v>548.2620776731201</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="W15" t="n">
-        <v>548.2620776731201</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X15" t="n">
-        <v>340.4105774675873</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y15" t="n">
-        <v>132.6502787026334</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5454,34 +5454,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="18">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>898.2686685760532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>898.2686685760532</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>670.0450503124422</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>434.8929420806995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="19">
@@ -5697,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y20" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>862.8876260635219</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U21" t="n">
-        <v>634.6640077999109</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V21" t="n">
-        <v>399.5118995681682</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>156.0631229240681</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>156.0631229240681</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.0631229240681</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C24" t="n">
-        <v>211.4418958032533</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D24" t="n">
-        <v>62.50748614200202</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>46.53953523349898</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>738.7078125165641</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>168.9696854242497</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C27" t="n">
-        <v>168.9696854242497</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
         <v>20.03527576299844</v>
@@ -6311,16 +6311,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6335,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>840.1969121251361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>611.9732938615252</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>376.8211856297825</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>376.8211856297825</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>168.9696854242497</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y27" t="n">
-        <v>168.9696854242497</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6651,10 +6651,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6721,28 +6721,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>211.2951883952089</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>64.76063042209384</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
         <v>19.28114311021272</v>
@@ -6885,25 +6885,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>730.8505943024719</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>784.1683185576485</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>784.1683185576485</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>549.0162103259058</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>549.0162103259058</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>341.164710120373</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7131,16 +7131,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>669.8525979295682</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C39" t="n">
-        <v>669.8525979295682</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D39" t="n">
-        <v>520.918188268317</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E39" t="n">
-        <v>361.6807332628614</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>199.5730239624919</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>86.20388837007123</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>898.0762161931791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>898.0762161931791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>669.8525979295682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>669.8525979295682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>669.8525979295682</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>669.8525979295682</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>669.8525979295682</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="40">
@@ -7365,10 +7365,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
         <v>19.28114311021272</v>
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U41" t="n">
-        <v>812.6742080953335</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V41" t="n">
-        <v>812.6742080953335</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W41" t="n">
-        <v>812.6742080953335</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X41" t="n">
-        <v>812.6742080953335</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y41" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>813.2497862610408</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>813.2497862610408</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>813.2497862610408</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V42" t="n">
-        <v>813.2497862610408</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W42" t="n">
-        <v>569.8010096169406</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X42" t="n">
-        <v>361.9495094114078</v>
+        <v>82.34666575615842</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7672,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T44" t="n">
-        <v>761.6974622895962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y44" t="n">
-        <v>518.2486856454962</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>259.0600686093459</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C45" t="n">
-        <v>259.0600686093459</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D45" t="n">
-        <v>259.0600686093459</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E45" t="n">
-        <v>99.82261360389037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F45" t="n">
-        <v>99.82261360389037</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>259.0600686093459</v>
+        <v>525.0334650079847</v>
       </c>
       <c r="W45" t="n">
-        <v>259.0600686093459</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X45" t="n">
-        <v>259.0600686093459</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y45" t="n">
-        <v>259.0600686093459</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>271.4402576706899</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,7 +8549,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O12" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,13 +10913,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>186.8580120236956</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,13 +11387,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>108.137662477717</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>6.233833869987905</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23396,16 +23396,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>145.2236497783945</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>93.00446534676519</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>47.71142943728566</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23709,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23861,7 +23861,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>106.5525690386006</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23873,13 +23873,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,19 +23971,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="21">
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>1.929357147493789</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24147,7 +24147,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
         <v>93.35918011667277</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24271,7 +24271,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24290,16 +24290,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>115.5975921801874</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>110.3577089611572</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24350,7 +24350,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24384,13 +24384,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,13 +24460,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>331.6961560838159</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24527,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24536,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>14.75355855760483</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>77.54308774317651</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24691,13 +24691,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>170.6702810763838</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>16.1006142106236</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>84.24788291858349</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24891,13 +24891,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24961,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25001,16 +25001,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>92.31882472444833</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>44.58217180160733</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>22.07478011136376</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>152.4745669960426</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>243.3324706909737</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.14311504415517</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25520,22 +25520,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>106.3620411795553</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25605,13 +25605,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25672,31 +25672,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>166.0248129136286</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>22.38387554673832</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>143.2478283578181</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>242.3541153134493</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>22.7597532753017</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25949,25 +25949,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>58.35405270072762</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>224.2732443275967</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>315705.2778095317</v>
+        <v>315705.2778095318</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>315705.2778095318</v>
+        <v>315705.2778095317</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914263</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>265857.0760501318</v>
@@ -26328,7 +26328,7 @@
         <v>265857.0760501318</v>
       </c>
       <c r="G2" t="n">
-        <v>265857.0760501318</v>
+        <v>265857.0760501319</v>
       </c>
       <c r="H2" t="n">
         <v>265857.0760501318</v>
@@ -26349,13 +26349,13 @@
         <v>265857.0760501318</v>
       </c>
       <c r="N2" t="n">
+        <v>265857.0760501318</v>
+      </c>
+      <c r="O2" t="n">
+        <v>265857.0760501318</v>
+      </c>
+      <c r="P2" t="n">
         <v>265857.0760501319</v>
-      </c>
-      <c r="O2" t="n">
-        <v>265857.0760501317</v>
-      </c>
-      <c r="P2" t="n">
-        <v>265857.0760501318</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272360.4272419866</v>
+        <v>272360.4272419865</v>
       </c>
       <c r="C6" t="n">
-        <v>268850.7648088332</v>
+        <v>268850.7648088334</v>
       </c>
       <c r="D6" t="n">
-        <v>329427.0869955016</v>
+        <v>329427.0869955017</v>
       </c>
       <c r="E6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="F6" t="n">
-        <v>251023.8747886661</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="G6" t="n">
-        <v>251023.8747886661</v>
+        <v>238805.8641686258</v>
       </c>
       <c r="H6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686256</v>
       </c>
       <c r="I6" t="n">
-        <v>251023.8747886661</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="J6" t="n">
-        <v>237022.6426483868</v>
+        <v>224804.6320283464</v>
       </c>
       <c r="K6" t="n">
-        <v>202766.9218550335</v>
+        <v>190548.9112349931</v>
       </c>
       <c r="L6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686258</v>
       </c>
       <c r="M6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="N6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="O6" t="n">
-        <v>251023.8747886661</v>
+        <v>238805.8641686257</v>
       </c>
       <c r="P6" t="n">
-        <v>251023.8747886662</v>
+        <v>238805.8641686258</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>369.7329094042925</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>65.10160868453272</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>159.2954515515985</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.5505105280968</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>108.7146434974898</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27596,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>248.2452255842423</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H5" t="n">
-        <v>132.4379232652038</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27697,25 +27697,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>143.1332672307183</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>195.5965237029761</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,10 +27827,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>205.9115976555972</v>
       </c>
       <c r="U7" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,16 +27867,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>194.4189411335972</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>141.8469392739093</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>211.0241122686881</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>162.4565364694636</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L2" t="n">
-        <v>51.35040662570935</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,7 +35269,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O12" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37390,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,13 +37633,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>55.51629994036225</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38107,13 +38107,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
